--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -223,6 +223,147 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú íïçåóå ïóóïœéóû òâïé îàâúëé\néòòìåäïâàóåìåê â Äïäèæ [CS:K]Íàñïâàëà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After a day of work, nothing\nbeats the Hot Spring.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoooo... It doesn\'t get better\nthan this! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После трудового дня ничто не\nсравнится с Горячими Источниками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аххххх... Лучше них нет\nничего! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óñôäïâïãï äîÿ îéœóï îå\nòñàâîéóòÿ ò Ãïñÿœéíé Éòóïœîéëàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àööööö... Ìôœšå îéö îåó\nîéœåãï! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I hear explorers are staying\naway from this place because that stench\nwon\'t go away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you were to ask me...[K]\nYou\'d have to be pretty soft to let a little\nsmell put you off!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two keep up with your\ntraining!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я слышал, что исследователи\nне заходят в город из-за противного\nзапаха.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Продолжайте тренировки, друзья!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ òìúšàì, œóï éòòìåäïâàóåìé\nîå èàöïäÿó â ãïñïä éè-èà ðñïóéâîïãï\nèàðàöà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïäïìçàêóå óñåîéñïâëé, äñôèûÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что я думаю...[K] Нужно быть\nслишком чувствительным, чтобы такой запах\nмог хоть как-то навредить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï ÿ äôíàý...[K] Îôçîï áúóû\nòìéšëïí œôâòóâéóåìûîúí, œóïáú óàëïê èàðàö\níïã öïóû ëàë-óï îàâñåäéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo![K] Hey, I\'m advertising another\nshop today!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See![K] See that shop there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That place\'s called the [CS:K]Electivire[CR]\nLink Shop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That shop can link two moves\ntogether for you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You see, linked moves are used\none after the other in the same turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Put a smart combo together and\nyou can make awesome strikes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why not pay the shop a visit and\nsee what I mean about linking moves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Там можно связать вместе два\nприёма!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Связанные приёмы применяются\nв один ход, друг за другом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Собери идеальную комбинацию и\nсможешь наносить удары чудовищной силы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Почему бы не посетить Лавку и\nузнать больше о связывании приёмов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это Связь-Лавка [CS:K]Элективайра[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо![K] Сегодня я рекламирую ещё\nодно место!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот![K] Видите эту лавку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï![K] Òåãïäîÿ ÿ ñåëìàíéñôý åþæ\nïäîï íåòóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó![K] Âéäéóå üóô ìàâëô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï Òâÿèû-Ìàâëà [CS:K]Üìåëóéâàêñà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàí íïçîï òâÿèàóû âíåòóå äâà\nðñéæíà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òâÿèàîîúå ðñéæíú ðñéíåîÿýóòÿ\nâ ïäéî öïä, äñôã èà äñôãïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òïáåñé éäåàìûîôý ëïíáéîàøéý é\nòíïçåšû îàîïòéóû ôäàñú œôäïâéþîïê òéìú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïœåíô áú îå ðïòåóéóû Ìàâëô é\nôèîàóû áïìûšå ï òâÿèúâàîéé ðñéæíïâ?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0706.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0803.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Congrats for making the\nexpedition party!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come back with lots of\nsouvenirs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Поздравляю с принятием в\nэкспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Принесите оттуда гору\nсувениров!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ðïèäñàâìÿý ò ðñéîÿóéåí â\nüëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéîåòéóå ïóóôäà ãïñô\nòôâåîéñïâ!</t>
   </si>
 </sst>
 </file>
@@ -601,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,17 +1059,232 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
         <v>791</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4">
+        <v>750</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>753</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4">
+        <v>725</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>728</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
+        <v>731</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4">
+        <v>662</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4">
+        <v>678</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>694</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>697</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>700</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>703</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
+        <v>706</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="4">
+        <v>640</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>643</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -364,6 +364,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñéîåòéóå ïóóôäà ãïñô\nòôâåîéñïâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo![K] Hey, I\'m advertising yet\nanother shop today!\n</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a shop down from here...[K]\n[CS:K]Xatu[CR] Appraisal is the place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have you two picked up any\nstrange treasure boxes in dungeons?\nYou know, ones you can\'t open?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Xatu[CR] has the ability to pop open\nboxes like that and take out whatever\'s inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s just one thing. He\'s...[K]\na little weird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anyway, if you find a treasure\nbox you can\'t open, [CS:N]Xatu[CR] is the one to visit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо![K] Сегодня я рекламирую новое\nместо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оно находится внизу...[K] Там\nработает Оценщик [CS:K]Ксату[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы когда-либо находили странные\nшкатулки в подземельях? Ну, те, что\nневозможно открыть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ксату[CR] может открыть такие\nшкатулки и достать хранящийся в них\nпредмет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только учтите. Он...[K] Несколько\nстранноват.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В общем, если вам попадутся\nшкатулки, заходите к [CS:N]Ксату[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï![K] Òåãïäîÿ ÿ ñåëìàíéñôý îïâïå\níåòóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîï îàöïäéóòÿ âîéèô...[K] Óàí\nñàáïóàåó Ïøåîþéë [CS:K]Ëòàóô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ëïãäà-ìéáï îàöïäéìé òóñàîîúå\nšëàóôìëé â ðïäèåíåìûÿö? Îô, óå, œóï\nîåâïèíïçîï ïóëñúóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ëòàóô[CR] íïçåó ïóëñúóû óàëéå\nšëàóôìëé é äïòóàóû öñàîÿþéêòÿ â îéö\nðñåäíåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï ôœóéóå. Ïî...[K] Îåòëïìûëï\nòóñàîîïâàó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ïáþåí, åòìé âàí ðïðàäôóòÿ\nšëàóôìëé, èàöïäéóå ë [CS:N]Ëòàóô[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1106.ssb</t>
   </si>
 </sst>
 </file>
@@ -742,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,17 +1334,109 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
         <v>643</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="4">
+        <v>580</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="4">
+        <v>596</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>612</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>615</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>618</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6">
+        <v>621</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -424,6 +424,159 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1106.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You know, everyone seems\nto be busy and stressed out…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is something the matter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I saw all those [CS:N]Pelipper[CR] in the\nsky too…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no fooling me. Something\nis happening, and it\'s bad…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Все чем-то заняты и так\nнапряжены...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё и [CS:N]Пелипперы[CR] в небе...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Меня не обмануть. Что-то\nпроисходит и это что-то ужасное...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âòå œåí-óï èàîÿóú é óàë\nîàðñÿçåîú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï òìôœéìïòû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ é [CS:N]Ðåìéððåñú[CR] â îåáå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íåîÿ îå ïáíàîôóû. Œóï-óï\nðñïéòöïäéó é üóï œóï-óï ôçàòîïå...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1307.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1311.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I heard! You\'re on the hunt\nfor a Pokémon named [CS:N]Grovyle[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P02A/um1315.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t figure it out, though...[K]\nWhat would make that [CS:N]Grovyle[CR] steal Time\nGears?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вот только одного не могу\nпонять...[K] Что заставило [CS:N]Гровайла[CR] красть\nШестерни Времени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âïó óïìûëï ïäîïãï îå íïãô\nðïîÿóû...[K] Œóï èàòóàâéìï [CS:N]Ãñïâàêìà[CR] ëñàòóû\nŠåòóåñîé Âñåíåîé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я тут узнал, что вы охотитесь\nна Покемона по имени [CS:N]Гровайл[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ óôó ôèîàì, œóï âú ïöïóéóåòû\nîà Ðïëåíïîà ðï éíåîé [CS:N]Ãñïâàêì[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! This time, you\'re off to\nexplore [CS:P]Crystal Cave[CR], huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That sounds rough.[K] But you do\nthe best you can!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! На этот раз вы пойдёте\nисследовать [CS:P]Кристальную Пещеру[CR], да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Звучит непросто.[K] Но вы\nсправитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Îà üóïó ñàè âú ðïêäæóå\néòòìåäïâàóû [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR], äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èâôœéó îåðñïòóï.[K] Îï âú\nòðñàâéóåòû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I\'m out and about spreading\nthat rumor for you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> About how [CS:N]Azelf[CR] and his friends\nare sealing away the Time Gear!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re getting my best effort!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я занимаюсь распространением\nслухов!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О том, как [CS:N]Азельф[CR] и его друзья\nзапечатывают Шестерню Времени!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я стараюсь как могу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ èàîéíàýòû ñàòðñïòóñàîåîéåí\nòìôöïâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï óïí, ëàë [CS:N]Àèåìûõ[CR] é åãï äñôèûÿ\nèàðåœàóúâàýó Šåòóåñîý Âñåíåîé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òóàñàýòû ëàë íïãô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1606.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Have you heard back about\n[CS:N]Dusknoir[CR], [CS:N]Azelf[CR], and the others?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]OK. Nothing yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s been no word from\nthem, I hear...[K] It makes for anxious waiting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Есть какие-нибудь вести о\n[CS:N]Даскнуаре[CR], [CS:N]Азельфе[CR] и всех остальных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Понятно. Пока никаких.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> От них всё ещё нет вестей...[K]\nКакое тревожное ожидание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Åòóû ëàëéå-îéáôäû âåòóé ï\n[CS:N]Äàòëîôàñå[CR], [CS:N]Àèåìûõå[CR] é âòåö ïòóàìûîúö?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ðïîÿóîï. Ðïëà îéëàëéö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïó îéö âòæ åþæ îåó âåòóåê...[K]\nËàëïå óñåâïçîïå ïçéäàîéå.</t>
   </si>
 </sst>
 </file>
@@ -802,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,6 +1592,231 @@
         <v>133</v>
       </c>
     </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="4">
+        <v>552</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="4">
+        <v>555</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="4">
+        <v>558</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6">
+        <v>561</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="4">
+        <v>530</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="6">
+        <v>533</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="4">
+        <v>508</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="6">
+        <v>511</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="4">
+        <v>483</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>486</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6">
+        <v>489</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="4">
+        <v>458</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>461</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>464</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -577,6 +577,108 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïó îéö âòæ åþæ îåó âåòóåê...[K]\nËàëïå óñåâïçîïå ïçéäàîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You two are safe!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And they say you came back\nfrom the future…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s amazing stuff, you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your gutsiness... I like it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have faith in you!\nNever give up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Вы в порядке!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все говорят, что вы вернулись\nиз будущего...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это же просто потрясающе,\nребятки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы так отважны... Мне\nнравится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я верю в вас! Никогда не\nсдавайтесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âú â ðïñÿäëå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ãïâïñÿó, œóï âú âåñîôìéòû\néè áôäôþåãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï çå ðñïòóï ðïóñÿòàýþå,\nñåáÿóëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú óàë ïóâàçîú... Íîå\nîñàâéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âåñý â âàò! Îéëïãäà îå\nòäàâàêóåòû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I\'ve heard!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The planet\'s going to be\nparalyzed if nothing\'s done?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s bad news! Bad, bad, bad!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я такое слышал!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы ничего не сделаем, то\nпланета будет парализована?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой ужас! Ужас, ужас, ужас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ óàëïå òìúšàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú îéœåãï îå òäåìàåí, óï\nðìàîåóà áôäåó ðàñàìéèïâàîà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ôçàò! Ôçàò, ôçàò, ôçàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You two![K] Rrrroar!\nRrrrooooarrrr!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two give it everything\nyou\'ve got!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Вы двое! Ррррраа!\nРрррррааааррррр!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покажите всем на что вы\nспособны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëàçéóå âòåí îà œóï âú\nòðïòïáîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âú äâïå![K] Ñññññàà!\nÑñññññààààñññññ!</t>
   </si>
 </sst>
 </file>
@@ -955,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,17 +1906,172 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="4">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6">
         <v>464</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="7" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="4">
+        <v>427</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="4">
+        <v>430</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>433</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>436</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6">
+        <v>439</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="4">
+        <v>402</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>405</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6">
+        <v>408</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="4">
+        <v>380</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>383</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -679,6 +679,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Êï! Âú äâïå![K] Ñññññàà!\nÑñññññààààñññññ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2504.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I heard what\'s going on with\nyou two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re taking the guild\'s\ngraduation exam? You give it your all!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я тут о вас двоих кое-что\nузнал!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы собираетесь пройти выпускной\nэкзамен? Выложитесь на полную!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ óôó ï âàò äâïéö ëïå-œóï\nôèîàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òïáéñàåóåòû ðñïêóé âúðôòëîïê\nüëèàíåî? Âúìïçéóåòû îà ðïìîôý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You passed your graduation\nexam, did you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You did it! Congratulations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I recognized that you two\nwere something else. And I was right!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Вы прошли выпускной экзамен,\nда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Молодцы! Поздравляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я сразу понял, что вы справитесь.\nИ я не ошибся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âú ðñïšìé âúðôòëîïê üëèàíåî,\näà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïìïäøú! Ðïèäñàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òñàèô ðïîÿì, œóï âú òðñàâéóåòû.\nÉ ÿ îå ïšéáòÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us3104.ssb</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,18 +2114,98 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4">
+    <row r="65" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="6">
         <v>383</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="4">
+        <v>358</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6">
+        <v>361</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="4">
+        <v>333</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
+        <v>336</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>339</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -733,6 +733,312 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us3104.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I heard you two went off\nexploring somewhere chilly, is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ll have to tell me all about\nit later!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Говорят, вы двое исследовали\nкакую-то холодную местность, так ведь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ãïâïñÿó, âú äâïå éòòìåäïâàìé\nëàëôý-óï öïìïäîôý íåòóîïòóû, óàë âåäû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Расскажите мне об этом\nкогда-нибудь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàòòëàçéóå íîå ïá üóïí\nëïãäà-îéáôäû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I heard your exploring took\nyou out to the sea this time, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s stupendous![K] There\'s\nnowhere that you won\'t go!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я слышал, что на этот раз\nвы исследовали море, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Потрясающе![K] Нет места, куда бы\nвы не осмелились пойти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ òìúšàì, œóï îà üóïó ñàè\nâú éòòìåäïâàìé íïñå, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïóñÿòàýþå![K] Îåó íåòóà, ëôäà áú\nâú îå ïòíåìéìéòû ðïêóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You taking that cute tyke\nout on a stroll?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yep, that\'s a cute little baby!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Ведёте малыша погулять?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, какой он миленький!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âåäæóå íàìúšà ðïãôìÿóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, ëàëïê ïî íéìåîûëéê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Aren\'t you bringing that cute\nbaby around today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Huh?[K] What?![K] Th-that baby\nwandered off somewhere?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! А где ваш милый малыш?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]А?[K] Что?![K] Эт-этот малыш куда-то\nушёл?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! À ãäå âàš íéìúê íàìúš?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]À?[K] Œóï?![K] Üó-üóïó íàìúš ëôäà-óï\nôšæì?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Did you end up finding that\ncute baby?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Huh?[K] What?![K] Th-the baby\'s\nfallen sick now?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Вы нашли своего миленького\nмалыша?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]А?[K] Что?![K] М-малыш заболел?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âú îàšìé òâïåãï íéìåîûëïãï\níàìúšà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]À?[K] Œóï?![K] Í-íàìúš èàáïìåì?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Come on, cheer up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When I see you two down, it\nbrings me down too…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come on now![K] Do it for me![K]\nGive me a smile and cheer up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Ну же, выше нос!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если я вижу, как вам грустно,\nя тоже начинаю грустить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну же![K] Хотя бы ради меня![K]\nУлыбнитесь, будьте веселее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Îô çå, âúšå îïò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ÿ âéçô, ëàë âàí ãñôòóîï,\nÿ óïçå îàœéîàý ãñôòóéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô çå![K] Öïóÿ áú ñàäé íåîÿ![K]\nÔìúáîéóåòû, áôäûóå âåòåìåå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! Let\'s face another day with\nour heads held high!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Пора гордо встретить новый\nдень!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ðïñà ãïñäï âòóñåóéóû îïâúê\näåîû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] You say Team [CS:X]Charm[CR]\npaid a visit to the guild?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rrrroar! I should\'ve gone to\nthe guild!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m a huge fan of Team [CS:X]Charm[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] В гильдию приходила\nКоманда [CS:X]Шарм[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ррррраа! Надо было мне сходить\nв гильдию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я большой фанат Команды [CS:X]Шарм[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Â ãéìûäéý ðñéöïäéìà\nËïíàîäà [CS:X]Šàñí[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñññññàà! Îàäï áúìï íîå òöïäéóû\nâ ãéìûäéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áïìûšïê õàîàó Ëïíàîäú [CS:X]Šàñí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Oh.[K] So Team [CS:X]Charm[CR]\nleft already…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, did they say anything about\ncoming back to Treasure Town ever?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Oh.[K] They never mentioned it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Rrrroar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Слушайте, а они говорили, что\nещё вернутся в Город Сокровищ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ох.[K] Даже и слова про это\nне сказали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ррррааа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ох.[K] Команда [CS:X]Шарм[CR] уже ушла...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ïö.[K] Ëïíàîäà [CS:X]Šàñí[CR] ôçå ôšìà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òìôšàêóå, à ïîé ãïâïñéìé, œóï\nåþæ âåñîôóòÿ â Ãïñïä Òïëñïâéþ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Ïö.[K] Äàçå é òìïâà ðñï üóï\nîå òëàèàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ññññààà.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little [CS:N]Azurill[CR]\'s asleep and no one\ncan wake him up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...What do you suppose happened\nto that tyke...?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2008.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Что же могло случиться с ним?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Малютка [CS:N]Азурилл[CR] уснул и никто\nне может его разбудить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íàìýóëà [CS:N]Àèôñéìì[CR] ôòîôì é îéëóï\nîå íïçåó åãï ñàèáôäéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Œóï çå íïãìï òìôœéóûòÿ ò îéí?..</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2012.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s that?![K] Go into a dream?!\nWhat is that about?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как это?![K] Попасть в сон?!\nКаким образом?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë üóï?![K] Ðïðàòóû â òïî?!\nËàëéí ïáñàèïí?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! I heard from the\nguild\'s crew…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sounds like there\'s bad trouble\nbrewing again…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Я тут кое-что услышал от\nребят из гильдии...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, что снова надвигается\nкакая-то беда...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Ÿ óôó ëïå-œóï ôòìúšàì ïó\nñåáÿó éè ãéìûäéé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, œóï òîïâà îàäâéãàåóòÿ\nëàëàÿ-óï áåäà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You show that [CS:N]Darkrai[CR] he picked\nthe wrong bunch to mess with!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покажите [CS:N]Даркраю[CR], что он не\nс теми связался!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëàçéóå [CS:N]Äàñëñàý[CR], œóï ïî îå\nò óåíé òâÿèàìòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yo! You two sure showed them!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can go on like this without\nbeing scared again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You get my thanks for that!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Йо! Вы задали им трёпку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь мы сможем жить, ничего\nне опасаясь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> За это вам спасибо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Êï! Âú èàäàìé éí óñæðëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû íú òíïçåí çéóû, îéœåãï\nîå ïðàòàÿòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èà üóï âàí òðàòéáï!</t>
   </si>
 </sst>
 </file>
@@ -763,7 +1069,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -804,11 +1110,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -829,6 +1155,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,7 +2518,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="B69" s="4">
         <v>336</v>
       </c>
@@ -2195,17 +2536,475 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="4">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8">
         <v>339</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="9" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="4">
+        <v>311</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="8">
+        <v>314</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" s="4">
+        <v>289</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="6">
+        <v>292</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>267</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
+        <v>270</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4">
+        <v>245</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
+        <v>248</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>223</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="6">
+        <v>226</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4">
+        <v>198</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>201</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6">
+        <v>204</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="10">
+        <v>179</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="4">
+        <v>154</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>157</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="6">
+        <v>160</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" s="4">
+        <v>126</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>129</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>132</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6">
+        <v>135</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="4">
+        <v>104</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6">
+        <v>107</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="10">
+        <v>85</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B95" s="4">
+        <v>63</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6">
+        <v>66</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B97" s="10">
+        <v>44</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" s="4">
+        <v>18</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>21</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="4">
+        <v>24</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вигорот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="341">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Èà üóï âàí òðàòéáï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2303.ssb</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,7 +2982,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="B99" s="4">
         <v>21</v>
       </c>
